--- a/test_data/TestConfiguration.xlsx
+++ b/test_data/TestConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SuitData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Key</t>
   </si>
@@ -38,168 +38,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>EditProfile</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>GenderSelection</t>
-  </si>
-  <si>
-    <t>LanguageSelection</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>ExamLevel</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>ExamLevelSelection</t>
-  </si>
-  <si>
-    <t>StandardSelection</t>
-  </si>
-  <si>
-    <t>SaveProfile</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>a17</t>
-  </si>
-  <si>
-    <t>a18</t>
-  </si>
-  <si>
-    <t>a19</t>
-  </si>
-  <si>
-    <t>a20</t>
-  </si>
-  <si>
-    <t>a21</t>
-  </si>
-  <si>
-    <t>a22</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>b10</t>
-  </si>
-  <si>
-    <t>b11</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
-    <t>b13</t>
-  </si>
-  <si>
-    <t>b14</t>
-  </si>
-  <si>
-    <t>b15</t>
-  </si>
-  <si>
-    <t>b16</t>
-  </si>
-  <si>
-    <t>b17</t>
-  </si>
-  <si>
-    <t>b18</t>
-  </si>
-  <si>
-    <t>b19</t>
-  </si>
-  <si>
-    <t>b20</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -339,6 +177,21 @@
   </si>
   <si>
     <t>.\\TestLog\\TestLog\\</t>
+  </si>
+  <si>
+    <t>MobileApp</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Mobile App')]</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Galactio')]</t>
+  </si>
+  <si>
+    <t>SGGPSNavigation</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'SG GPS Navigation')]</t>
   </si>
 </sst>
 </file>
@@ -693,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -713,58 +566,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,13 +653,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -814,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -825,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -836,208 +689,76 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1048,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1081,148 +802,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +818,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,58 +829,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1333,23 +913,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/TestConfiguration.xlsx
+++ b/test_data/TestConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="SuitData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Key</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test_v</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -167,18 +161,12 @@
     <t>FailedScreenshotPath</t>
   </si>
   <si>
-    <t>LogPath</t>
-  </si>
-  <si>
     <t>.\\FailedScreenShot\\</t>
   </si>
   <si>
     <t>.\\ScreenShot\\</t>
   </si>
   <si>
-    <t>.\\TestLog\\TestLog\\</t>
-  </si>
-  <si>
     <t>MobileApp</t>
   </si>
   <si>
@@ -192,6 +180,24 @@
   </si>
   <si>
     <t>//a[contains(text(),'SG GPS Navigation')]</t>
+  </si>
+  <si>
+    <t>MobileApp2</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),' MOBILE APP ')]</t>
+  </si>
+  <si>
+    <t>GalactioLogin</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Register / Login')]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Install']</t>
+  </si>
+  <si>
+    <t>GalactioAppInstallButton</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,58 +572,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -627,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,13 +651,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,10 +665,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -678,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,62 +687,62 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -752,13 +750,46 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -802,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +849,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,58 +860,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +922,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,28 +944,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/test_data/TestConfiguration.xlsx
+++ b/test_data/TestConfiguration.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test_data/TestConfiguration.xlsx
+++ b/test_data/TestConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SuitData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Key</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>GalactioAppInstallButton</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Legend')]</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Calendar')]</t>
   </si>
 </sst>
 </file>
@@ -552,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,6 +802,28 @@
       </c>
       <c r="C14" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
